--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>1.667746523277</v>
+        <v>3.309204266109</v>
       </c>
       <c r="R2">
-        <v>15.009718709493</v>
+        <v>29.782838394981</v>
       </c>
       <c r="S2">
-        <v>0.06024835793782581</v>
+        <v>0.1004495468217558</v>
       </c>
       <c r="T2">
-        <v>0.06024835793782581</v>
+        <v>0.1004495468217558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
         <v>5.661197416962</v>
@@ -632,10 +632,10 @@
         <v>50.95077675265799</v>
       </c>
       <c r="S3">
-        <v>0.2045142013929241</v>
+        <v>0.1718433403541359</v>
       </c>
       <c r="T3">
-        <v>0.2045142013929241</v>
+        <v>0.1718433403541359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
         <v>1.304853046119</v>
@@ -694,10 +694,10 @@
         <v>11.743677415071</v>
       </c>
       <c r="S4">
-        <v>0.047138610263367</v>
+        <v>0.03960828241822528</v>
       </c>
       <c r="T4">
-        <v>0.04713861026336701</v>
+        <v>0.03960828241822527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.390089</v>
       </c>
       <c r="I5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J5">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>3.679288646380333</v>
+        <v>7.300580462865668</v>
       </c>
       <c r="R5">
-        <v>33.113597817423</v>
+        <v>65.70522416579101</v>
       </c>
       <c r="S5">
-        <v>0.1329165411108958</v>
+        <v>0.2216061445771343</v>
       </c>
       <c r="T5">
-        <v>0.1329165411108958</v>
+        <v>0.2216061445771342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.390089</v>
       </c>
       <c r="I6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J6">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>12.48941556191533</v>
@@ -818,10 +818,10 @@
         <v>112.404740057238</v>
       </c>
       <c r="S6">
-        <v>0.451187736689137</v>
+        <v>0.3791111192837006</v>
       </c>
       <c r="T6">
-        <v>0.451187736689137</v>
+        <v>0.3791111192837005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.390089</v>
       </c>
       <c r="I7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="J7">
-        <v>0.6880988304058829</v>
+        <v>0.688098830405883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>2.878693452975666</v>
@@ -880,10 +880,10 @@
         <v>25.908241076781</v>
       </c>
       <c r="S7">
-        <v>0.1039945526058501</v>
+        <v>0.08738156654504826</v>
       </c>
       <c r="T7">
-        <v>0.1039945526058502</v>
+        <v>0.08738156654504824</v>
       </c>
     </row>
   </sheetData>
